--- a/biology/Zoologie/Dalotia_coriaria/Dalotia_coriaria.xlsx
+++ b/biology/Zoologie/Dalotia_coriaria/Dalotia_coriaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dalotia coriaria[1] est une espèce d'insectes coléoptères de la famille des Staphylinidae. Ce coléoptère prédateur est utilisé comme agent de lutte biologique contre les moucherons des terreaux (genres Bradysia et Corynoptera)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dalotia coriaria est une espèce d'insectes coléoptères de la famille des Staphylinidae. Ce coléoptère prédateur est utilisé comme agent de lutte biologique contre les moucherons des terreaux (genres Bradysia et Corynoptera).
 spp.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon  Catalogue of Life                                   (18 mars 2015)[3] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon  Catalogue of Life                                   (18 mars 2015) : 
 Atheta coriaria (Kraatz, 1856),
 Homalota coriaria Kraatz, 1856.</t>
         </is>
